--- a/Assets/Test/Numbers.xlsx
+++ b/Assets/Test/Numbers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\unity\Project\LastDevotion\Assets\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E23F9F-91DD-42EA-99D7-9D0EA597D515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B1C29E-B7C3-446C-ACE8-53BD3E282091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>RubyRose</t>
   </si>
@@ -51,6 +51,9 @@
     <t>Soul Ledger: Each strike brands the enemy with a death mark, storing (5 + 0.1 * reflex)% of their max HP per hit.
 The mark stacks infinitely.
 When the enemy’s HP falls below the total stored mark value, she instantly dashes near them, cleaving with her scythe for damage equal to the stored amount.</t>
+  </si>
+  <si>
+    <t>JapaneseSamurai</t>
   </si>
 </sst>
 </file>
@@ -95,7 +98,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,14 +380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,6 +419,8 @@
         <v>1000</v>
       </c>
       <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -433,6 +439,24 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="F4" s="1">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Test/Numbers.xlsx
+++ b/Assets/Test/Numbers.xlsx
@@ -2,68 +2,266 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\unity\Project\LastDevotion\Assets\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B1C29E-B7C3-446C-ACE8-53BD3E282091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B99A15-CAEE-492A-A1A2-4B7B15783BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Champion" sheetId="1" r:id="rId1"/>
+    <sheet name="Stat Upgrade Option" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>RubyRose</t>
   </si>
   <si>
-    <t>skill</t>
-  </si>
-  <si>
     <t>Dummy</t>
   </si>
   <si>
     <t>HP</t>
   </si>
   <si>
-    <t>aspd</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>mana</t>
-  </si>
-  <si>
-    <t>Soul Ledger: Each strike brands the enemy with a death mark, storing (5 + 0.1 * reflex)% of their max HP per hit.
-The mark stacks infinitely.
-When the enemy’s HP falls below the total stored mark value, she instantly dashes near them, cleaving with her scythe for damage equal to the stored amount.</t>
-  </si>
-  <si>
     <t>JapaneseSamurai</t>
+  </si>
+  <si>
+    <t>Kyojuro</t>
+  </si>
+  <si>
+    <t>Ironclad (active): Increase armor by 10 + current might.</t>
+  </si>
+  <si>
+    <t>HPREGEN</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>MPREGEN</t>
+  </si>
+  <si>
+    <t>MIGHT</t>
+  </si>
+  <si>
+    <t>REFLEX</t>
+  </si>
+  <si>
+    <t>WISDOM</t>
+  </si>
+  <si>
+    <t>ASPD</t>
+  </si>
+  <si>
+    <t>ARMOR</t>
+  </si>
+  <si>
+    <t>MSPD</t>
+  </si>
+  <si>
+    <t>DMGMOD</t>
+  </si>
+  <si>
+    <t>OMNIVAMP</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>CRITCHANCE</t>
+  </si>
+  <si>
+    <t>CRITMOD</t>
+  </si>
+  <si>
+    <t>DMGREDUC</t>
+  </si>
+  <si>
+    <t>ATKRANGE</t>
+  </si>
+  <si>
+    <t>Pit</t>
+  </si>
+  <si>
+    <t>Cull step (active): Teleport to the enemy with the lowest hp and deal damage to surrounding enemies equal to 10 × reflex.</t>
+  </si>
+  <si>
+    <t>Aquaen</t>
+  </si>
+  <si>
+    <t>Twins of Cataclysm (Passive):
+Each of her attacks has a chance to unleash one of two devastating techniques:
+• Cataclysm Twin — Blade Surge: performs a triple strike on her current target, each blow dealing damage equal to its strike number × atk (5 + reflex% chance).
+• Cataclysm Twin — Tidal Break: delivers a swift slash, dealing 1 × atk damage, then summons a surging wave that crashes upon the enemy, dealing 0.75 × hp damage (5 + might% chance).</t>
+  </si>
+  <si>
+    <t>Unbroken Vigor: Drawing upon the forbidden art of her hidden clan, she consumes the mysterious unknown Fruit. Her body surges with primal energy, her movements blurring with unmatched speed. Gains (0.25 + reflex × 0.01) aspd and (0.2 + reflex × 0.01) omnivamp.</t>
+  </si>
+  <si>
+    <t>Arkana</t>
+  </si>
+  <si>
+    <t>Battle Tempo (passive) — Her rhythm in battle is unmatched; each strike flows seamlessly into the next. On the fourth blow, her chain sings with deadly precision, dealing bonus damage equal to 2.5 × reflex.</t>
+  </si>
+  <si>
+    <t>Champ</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>BringerOfDeath</t>
+  </si>
+  <si>
+    <t>Eye of the Reaper (active) — Summoning the void’s own sight, she tears open a black hole in the sky. A torrent of dark magic crashes down upon her enemy, dealing 8 × wisdom damage. Each time she is wounded, the Reaper’s eye may awaken again, with a (25 + wisdom × 0.5)% chance to appear above another, untargeted foe.</t>
+  </si>
+  <si>
+    <t>Blood of the Fallen — He channels the ancient art of the fallen masters, summoning a surge of cerulean energy through his palm. The blue shockwave ripples outward, dealing (5 × might) damage to all caught in its path, then returns its life force to him, healing (0.1 × hp + 5 × might) health.</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>ElementalLeafRanger</t>
+  </si>
+  <si>
+    <t>Silent Draw (active) — With the precision of an old master, he flicks his wrist and releases five kunai in a single, fluid motion. Each blade slices through the air toward the target direction, dealing (1.25 × reflex) damage and inflicting strike lock for 3 seconds.</t>
+  </si>
+  <si>
+    <t>Jinsei</t>
+  </si>
+  <si>
+    <t>Celestial Atonement (active) — The aged wizard chants the forbidden Luminis Siphon, his eyes locking onto the enemy with the lowest current mp. He draws upon their life essence, and any excess energy that cannot be claimed surges through him, empowering his strikes and increasing attack speed by (max(0, 50 + wisdom × 0.5 − target_current mp) × (1 + wisdom × 0.1))%.</t>
+  </si>
+  <si>
+    <t>Morvath</t>
+  </si>
+  <si>
+    <t>Detonate (active): Throw a grenade at current target, dealing 6.25 × reflex damage and pushing them backward from their current facing.</t>
+  </si>
+  <si>
+    <t>NovaKade</t>
+  </si>
+  <si>
+    <t>BoneFlurry (Active + Passive)
+Passive: After each attack, there is a (35 + might)% chance to unleash 3 bonus strikes. Each bonus strike deals [125% / 150% / 175% atk] respectively.
+Active: For the next 1.5 seconds, the 3 bonus strikes are empowered, each dealing (Base Percentage + 100 + might)% atk instead.</t>
+  </si>
+  <si>
+    <t>Ossarian</t>
+  </si>
+  <si>
+    <t>Pact of Stillness (active)
+Enter a defensive stance, fortifying his grand shield to gain 75% damage reduction for 4 s, cannot act during pact of stillness.</t>
+  </si>
+  <si>
+    <t>OssifiedSentinel</t>
+  </si>
+  <si>
+    <t>Guarded Vengeance (active)
+Withdraws behind his hidden armor, gain 25% damage reduction for 2.75 seconds. When the armor can no longer contain the impact, it erupts outward, releasing an explosion that deals (30 + might)% of the damage absorbed to nearby enemies.</t>
+  </si>
+  <si>
+    <t>Raiken</t>
+  </si>
+  <si>
+    <t>Rimuru</t>
+  </si>
+  <si>
+    <t>Soul Ledger (passive)
+Each strike brands the enemy with a death mark, storing (5 + 0.1 * reflex)% of their max HP per hit. The mark stacks infinitely. When the enemy’s HP falls below the total stored mark value, she instantly dashes near them, cleaving with her scythe for damage equal to the stored amount.</t>
+  </si>
+  <si>
+    <t>SamuraiArcher</t>
+  </si>
+  <si>
+    <t>WanderMagician</t>
+  </si>
+  <si>
+    <t>Force breaker (active)
+Channels overwhelming force into a 3-hit combo — a swift flame slash, a shockwave that blasts enemies away, and a final fireball strike that scorches everything ahead. The first and last hits each deal (5.25 × reflex) damage.</t>
+  </si>
+  <si>
+    <t>Zuko</t>
+  </si>
+  <si>
+    <t>Rimuru combo 1 (active)
+Unleashes a swift 3-hit combo on the current target, dashing toward them with each strike. Each slash deals (4.25 × reflex) damage to all enemies hit by the blade.</t>
+  </si>
+  <si>
+    <t>Ray Of Jungle (Active): Gathering the primal energies of heaven and earth into a single arrow of pure radiance, he draws the bowstring to its limit and releases a cataclysmic beam that tears through his target, dealing 7.75 × Wisdom total damage over 0.4 seconds.</t>
+  </si>
+  <si>
+    <t>Blade of Phong (Active): Swift as the wind itself, a single sweeping strike unleashes a slicing tornado that surges toward his foe, dealing (4.95 × Might) damage and knocking them into the air.</t>
+  </si>
+  <si>
+    <t>The Hollow Shepherd (Passive): When an ally nears death, 10% of their maximum life is drained, empowering the Hollow Shepherd with 50% Attack Speed.</t>
+  </si>
+  <si>
+    <t>Glacistream (Active):
+Channeling her inner water affinity, she conjures a swirling water orb that crashes down upon her current target, dealing 10 × wisdom damage.
+The impact then solidifies into jagged icicles beneath the enemy’s feet, impaling them and dealing 1 × atk damage per second.</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>+22 HP,  +0.1 HPREGEN</t>
+  </si>
+  <si>
+    <t>+0.17 ARMOR, +0.01 ASPD</t>
+  </si>
+  <si>
+    <t>+12 MP, +0.05 MPREGEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -89,17 +287,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,84 +588,1416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="10.109375" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="1">
         <v>1000</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C4" s="1">
         <v>50</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
         <v>3.8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="P5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>100</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>100</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2A901C-E04E-43DE-8A6E-DDD681D781DD}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
